--- a/xlsx/战略与国际研究中心_intext.xlsx
+++ b/xlsx/战略与国际研究中心_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國共和黨</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_战略与国际研究中心</t>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_战略与国际研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E4%B8%8A%E5%B0%87</t>
   </si>
   <si>
-    <t>海軍上將</t>
+    <t>海军上将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%88%A9%C2%B7%E4%BC%AF%E5%85%8B</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%9B%BC%E7%A7%91%E7%88%BE%C2%B7%E8%89%BE%E5%B8%83%E5%A4%8F%E7%88%BE</t>
   </si>
   <si>
-    <t>大衛·曼科爾·艾布夏爾</t>
+    <t>大卫·曼科尔·艾布夏尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>技術</t>
+    <t>技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E5%81%89</t>
   </si>
   <si>
-    <t>米德偉</t>
+    <t>米德伟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%8F%E6%B5%8E%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
